--- a/results/Preliminaries-Norway.xlsx
+++ b/results/Preliminaries-Norway.xlsx
@@ -53,40 +53,40 @@
     <t>2017</t>
   </si>
   <si>
-    <t>DNA</t>
-  </si>
-  <si>
-    <t>FRP</t>
-  </si>
-  <si>
-    <t>H -</t>
-  </si>
-  <si>
-    <t>KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV </t>
-  </si>
-  <si>
-    <t>V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
-    <t>MDG</t>
-  </si>
-  <si>
-    <t>R -</t>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)</t>
+  </si>
+  <si>
+    <t>no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>R - Red (Rødt, R)</t>
   </si>
   <si>
     <t>Key</t>
@@ -125,2653 +125,2653 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>DNA+FRP</t>
-  </si>
-  <si>
-    <t>DNA+H -</t>
-  </si>
-  <si>
-    <t>DNA+KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+SV </t>
-  </si>
-  <si>
-    <t>DNA+V -</t>
-  </si>
-  <si>
-    <t>FRP+H -</t>
-  </si>
-  <si>
-    <t>FRP+KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+SV </t>
-  </si>
-  <si>
-    <t>FRP+V -</t>
-  </si>
-  <si>
-    <t>H -+KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+SV </t>
-  </si>
-  <si>
-    <t>H -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+SV </t>
-  </si>
-  <si>
-    <t>KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV +SV </t>
-  </si>
-  <si>
-    <t>RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP +SV </t>
-  </si>
-  <si>
-    <t>SP +V -</t>
-  </si>
-  <si>
-    <t>SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+SV </t>
-  </si>
-  <si>
-    <t>DNA+KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+RV +SV </t>
-  </si>
-  <si>
-    <t>DNA+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+SV </t>
-  </si>
-  <si>
-    <t>FRP+KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+RV +SV </t>
-  </si>
-  <si>
-    <t>FRP+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+SV </t>
-  </si>
-  <si>
-    <t>H -+KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+RV +SV </t>
-  </si>
-  <si>
-    <t>H -+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+SP +SV </t>
-  </si>
-  <si>
-    <t>H -+SP +V -</t>
-  </si>
-  <si>
-    <t>H -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+RV +SV </t>
-  </si>
-  <si>
-    <t>KRF+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>KRF+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV +SP +SV </t>
-  </si>
-  <si>
-    <t>RV +SP +V -</t>
-  </si>
-  <si>
-    <t>RV +SV +V -</t>
-  </si>
-  <si>
-    <t>SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+RV +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+RV +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+RV +SV </t>
-  </si>
-  <si>
-    <t>DNA+KRF+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+RV +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+RV +SV </t>
-  </si>
-  <si>
-    <t>FRP+KRF+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+RV +SV </t>
-  </si>
-  <si>
-    <t>H -+KRF+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>H -+KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>H -+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>H -+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>H -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>KRF+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>KRF+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+RV +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+RV +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+RV +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+KRF+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+RV +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+KRF+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>H -+KRF+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>H -+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>KRF+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+RV +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+RV +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+RV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+RV +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+RV +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+RV +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+RV +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KP </t>
-  </si>
-  <si>
-    <t>KP +KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP +SV </t>
-  </si>
-  <si>
-    <t>KP +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KP </t>
-  </si>
-  <si>
-    <t>DNA+KP +KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KP +SV </t>
-  </si>
-  <si>
-    <t>DNA+KP +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KP </t>
-  </si>
-  <si>
-    <t>FRP+KP +KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KP +SV </t>
-  </si>
-  <si>
-    <t>FRP+KP +V -</t>
-  </si>
-  <si>
-    <t>H -+KP +KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KP +SV </t>
-  </si>
-  <si>
-    <t>H -+KP +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP +KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP +KRF+SV </t>
-  </si>
-  <si>
-    <t>KP +KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP +SP +SV </t>
-  </si>
-  <si>
-    <t>KP +SP +V -</t>
-  </si>
-  <si>
-    <t>KP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KP </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KP +KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KP +KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KP +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KP +KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KP +KRF+SV </t>
-  </si>
-  <si>
-    <t>DNA+KP +KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KP +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+KP +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+KP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KP +KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KP +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KP +KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KP +KRF+SV </t>
-  </si>
-  <si>
-    <t>FRP+KP +KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KP +SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+KP +SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+KP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KP +KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KP +KRF+SV </t>
-  </si>
-  <si>
-    <t>H -+KP +KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KP +SP +SV </t>
-  </si>
-  <si>
-    <t>H -+KP +SP +V -</t>
-  </si>
-  <si>
-    <t>H -+KP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP +KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>KP +KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>KP +KRF+SV +V -</t>
-  </si>
-  <si>
-    <t>KP +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KP +KRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KP +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KP +KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KP +KRF+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KP +KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KP +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KP +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KP +KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KP +KRF+SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KP +KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KP +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KP +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KP +KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+KP +KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+KP +KRF+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+KP +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KP +KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KP +KRF+SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KP +KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KP +SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KP +SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KP +KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+KP +KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+KP +KRF+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+KP +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KP +KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>H -+KP +KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>H -+KP +KRF+SV +V -</t>
-  </si>
-  <si>
-    <t>H -+KP +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>KP +KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KP +KRF+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KP +KRF+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KP +KRF+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KP +SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KP +SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KP +KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KP +KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KP +KRF+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KP +SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KP +KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KP +KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KP +KRF+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KP +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+KP +KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KP +KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KP +KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KP +KRF+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KP +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+KP +KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>H -+KP +KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KP +KRF+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KP +KRF+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KP +KRF+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KP +SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KP +KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KP +KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KP +KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KP +KRF+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+SP +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+SP +SV +no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+SP +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+SP +SV +V -+no </t>
-  </si>
-  <si>
-    <t>DNA+MDG</t>
-  </si>
-  <si>
-    <t>FRP+MDG</t>
-  </si>
-  <si>
-    <t>H -+MDG</t>
-  </si>
-  <si>
-    <t>KRF+MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDG+SV </t>
-  </si>
-  <si>
-    <t>MDG+V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+MDG</t>
-  </si>
-  <si>
-    <t>DNA+H -+MDG</t>
-  </si>
-  <si>
-    <t>DNA+KRF+MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+MDG+SV </t>
-  </si>
-  <si>
-    <t>DNA+MDG+V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+MDG</t>
-  </si>
-  <si>
-    <t>FRP+KRF+MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+MDG+SV </t>
-  </si>
-  <si>
-    <t>FRP+MDG+V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+MDG+SV </t>
-  </si>
-  <si>
-    <t>H -+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+MDG+SV </t>
-  </si>
-  <si>
-    <t>KRF+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>MDG+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+MDG</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+MDG+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+MDG+V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+MDG+SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+MDG+SV </t>
-  </si>
-  <si>
-    <t>DNA+KRF+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+MDG+SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+MDG+SV </t>
-  </si>
-  <si>
-    <t>FRP+KRF+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+MDG+SV </t>
-  </si>
-  <si>
-    <t>H -+KRF+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>H -+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>H -+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>KRF+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>KRF+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t>MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+MDG+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+MDG+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+MDG+SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+KRF+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+MDG+SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+KRF+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>H -+KRF+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t>H -+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>KRF+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+MDG+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+MDG+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+MDG+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+MDG+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+MDG+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+MDG+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+MDG+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+R -</t>
-  </si>
-  <si>
-    <t>FRP+R -</t>
-  </si>
-  <si>
-    <t>H -+R -</t>
-  </si>
-  <si>
-    <t>KRF+R -</t>
-  </si>
-  <si>
-    <t>MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R -+SV </t>
-  </si>
-  <si>
-    <t>R -+V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+R -</t>
-  </si>
-  <si>
-    <t>DNA+H -+R -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+R -</t>
-  </si>
-  <si>
-    <t>DNA+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+R -+V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+R -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+R -</t>
-  </si>
-  <si>
-    <t>FRP+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+R -+SV </t>
-  </si>
-  <si>
-    <t>FRP+R -+V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+R -</t>
-  </si>
-  <si>
-    <t>H -+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+R -+SV </t>
-  </si>
-  <si>
-    <t>H -+R -+V -</t>
-  </si>
-  <si>
-    <t>KRF+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+R -+SV </t>
-  </si>
-  <si>
-    <t>KRF+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R -+SP +SV </t>
-  </si>
-  <si>
-    <t>R -+SP +V -</t>
-  </si>
-  <si>
-    <t>R -+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+R -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+R -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+R -+V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+R -</t>
-  </si>
-  <si>
-    <t>DNA+H -+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+R -+V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+KRF+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+R -</t>
-  </si>
-  <si>
-    <t>FRP+H -+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+R -+SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+R -+V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+R -+SV </t>
-  </si>
-  <si>
-    <t>FRP+KRF+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>FRP+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+R -+SV </t>
-  </si>
-  <si>
-    <t>H -+KRF+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>H -+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>H -+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>H -+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>KRF+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>KRF+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>KRF+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+R -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+R -+V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+KRF+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+KRF+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+R -+SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>FRP+KRF+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+KRF+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>H -+KRF+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>H -+KRF+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>H -+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>H -+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>H -+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRF+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>KRF+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>KRF+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>KRF+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+MDG+R -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+KRF+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+KRF+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+KRF+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+KRF+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H -+KRF+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>H -+KRF+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>H -+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>KRF+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+MDG+R -+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+MDG+R -+SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+MDG+R -+V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+R -+SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+KRF+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+H -+KRF+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+KRF+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRP+H -+KRF+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+KRF+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>H -+KRF+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA+FRP+H -+KRF+MDG+R -+SP +SV </t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+MDG+R -+SP +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+MDG+R -+SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+KRF+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+H -+KRF+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>FRP+H -+KRF+MDG+R -+SP +SV +V -</t>
-  </si>
-  <si>
-    <t>DNA+FRP+H -+KRF+MDG+R -+SP +SV +V -</t>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+RV - Red Election Alliance (Rød Valgallianse, RV)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KP - Coastal Party (Kystpartiet, KP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)+no acronym - Others (andre, no acronym)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
+  </si>
+  <si>
+    <t>DNA - Labour Party (Det Norske Arbeiderpati, DNA)+FRP - Progress Party (Fremskrittspartiet, FRP)+H - Høyre (Conservative, H)+KRF - Christian People's Party (Kristelig Folkeparti, KRF)+MDG - Environmental Party of the Greens (Miljøpartiet De Grønne, MDG)+R - Red (Rødt, R)+SP - Centre Party (Senterpartiet, SP)+SV - Socialistic Left Party (Sosialistisk Venstreparti, SV)+V - Liberal Party (Venstre, V)</t>
   </si>
 </sst>
 </file>
